--- a/PythonResources/Data/Consumption/Sympheny/base_1657_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1657_hea.xlsx
@@ -383,7 +383,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>37.13092831423781</v>
+        <v>37.1309283142378</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -503,7 +503,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>9.5316666187984</v>
+        <v>9.531666618798395</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -559,7 +559,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>31.5432358911206</v>
+        <v>31.54323589112059</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>55.38515102829836</v>
+        <v>55.38515102829835</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -615,7 +615,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>51.98640619294274</v>
+        <v>51.98640619294273</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -839,7 +839,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.847710910038328</v>
+        <v>0.8477109100383279</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -967,7 +967,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>10.44695677964165</v>
+        <v>10.44695677964164</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>1.870221110375829</v>
+        <v>1.870221110375828</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>57.7162380698107</v>
+        <v>57.71623806981069</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>74.69237798426913</v>
+        <v>74.69237798426911</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>48.3611174447019</v>
+        <v>48.36111744470189</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>26.23472293943219</v>
+        <v>26.23472293943218</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>44.76865265279113</v>
+        <v>44.76865265279112</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>52.45004457610499</v>
+        <v>52.45004457610498</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>48.2435959581987</v>
+        <v>48.24359595819869</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>19.61870285586005</v>
+        <v>19.61870285586004</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>38.12443913529977</v>
+        <v>38.12443913529976</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>54.32775072080823</v>
+        <v>54.32775072080822</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>65.78536297727352</v>
+        <v>65.78536297727351</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>75.53085422587924</v>
+        <v>75.53085422587922</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>53.97577240337595</v>
+        <v>53.97577240337594</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>66.52712577612539</v>
+        <v>66.52712577612537</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>81.70644715255111</v>
+        <v>81.70644715255109</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>74.36120771058181</v>
+        <v>74.36120771058179</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>38.96760451352846</v>
+        <v>38.96760451352845</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>42.89856635509308</v>
+        <v>42.89856635509307</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>36.42785089248924</v>
+        <v>36.42785089248923</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>53.94529301535517</v>
+        <v>53.94529301535516</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>16.80495712077634</v>
+        <v>16.80495712077633</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>33.97191558850717</v>
+        <v>33.97191558850716</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>7.309426161044881</v>
+        <v>7.30942616104488</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>10.93037745791354</v>
+        <v>10.93037745791353</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>71.99934821001003</v>
+        <v>71.99934821001001</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>25.85164978479794</v>
+        <v>25.85164978479793</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>24.00201984559846</v>
+        <v>24.00201984559845</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>53.45645052286805</v>
+        <v>53.45645052286804</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>35.99469189734777</v>
+        <v>35.99469189734776</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>69.09237657752814</v>
+        <v>69.09237657752813</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>57.2499620473005</v>
+        <v>57.24996204730049</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>407</v>
       </c>
       <c r="B407">
-        <v>91.69049822662716</v>
+        <v>91.69049822662714</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>415</v>
       </c>
       <c r="B415">
-        <v>154.137782073548</v>
+        <v>154.1377820735479</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>422</v>
       </c>
       <c r="B422">
-        <v>65.84427025604445</v>
+        <v>65.84427025604444</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>86.70242914861106</v>
+        <v>86.70242914861105</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>453</v>
       </c>
       <c r="B453">
-        <v>79.94538328123508</v>
+        <v>79.94538328123507</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>456</v>
       </c>
       <c r="B456">
-        <v>87.18335872305433</v>
+        <v>87.18335872305431</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>467</v>
       </c>
       <c r="B467">
-        <v>49.39038293248054</v>
+        <v>49.39038293248053</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>53.29086538602439</v>
+        <v>53.29086538602438</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>49.81064680192091</v>
+        <v>49.8106468019209</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>52.58251268557992</v>
+        <v>52.58251268557991</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>53.77238110254498</v>
+        <v>53.77238110254497</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>91.78926316665604</v>
+        <v>91.789263166656</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>113.6693607710348</v>
+        <v>113.6693607710347</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>525</v>
       </c>
       <c r="B525">
-        <v>86.93161070084423</v>
+        <v>86.93161070084422</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>559</v>
       </c>
       <c r="B559">
-        <v>167.2292653705503</v>
+        <v>167.2292653705502</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>564</v>
       </c>
       <c r="B564">
-        <v>82.3986809458692</v>
+        <v>82.39868094586919</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>571</v>
       </c>
       <c r="B571">
-        <v>94.94329368472944</v>
+        <v>94.9432936847294</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>572</v>
       </c>
       <c r="B572">
-        <v>87.64699710621657</v>
+        <v>87.64699710621656</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>573</v>
       </c>
       <c r="B573">
-        <v>72.47089951121613</v>
+        <v>72.47089951121612</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>96.96343235422208</v>
+        <v>96.96343235422206</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>591</v>
       </c>
       <c r="B591">
-        <v>60.82923864247151</v>
+        <v>60.8292386424715</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>593</v>
       </c>
       <c r="B593">
-        <v>52.94445541832668</v>
+        <v>52.94445541832667</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>596</v>
       </c>
       <c r="B596">
-        <v>57.45892169786604</v>
+        <v>57.45892169786603</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>605</v>
       </c>
       <c r="B605">
-        <v>78.39943355229649</v>
+        <v>78.39943355229647</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>33.14105919390225</v>
+        <v>33.14105919390224</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>60.43417888235602</v>
+        <v>60.43417888235601</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>626</v>
       </c>
       <c r="B626">
-        <v>78.10606944259648</v>
+        <v>78.10606944259646</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>642</v>
       </c>
       <c r="B642">
-        <v>99.33848005153362</v>
+        <v>99.33848005153359</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>643</v>
       </c>
       <c r="B643">
-        <v>77.04632456679705</v>
+        <v>77.04632456679704</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>659</v>
       </c>
       <c r="B659">
-        <v>62.28873241500501</v>
+        <v>62.288732415005</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>60.95174233663195</v>
+        <v>60.95174233663194</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>669</v>
       </c>
       <c r="B669">
-        <v>78.62802896245233</v>
+        <v>78.62802896245232</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>693</v>
       </c>
       <c r="B693">
-        <v>48.29195267957782</v>
+        <v>48.29195267957781</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>698</v>
       </c>
       <c r="B698">
-        <v>73.95120132749459</v>
+        <v>73.95120132749457</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>77.76434861151735</v>
+        <v>77.76434861151733</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>701</v>
       </c>
       <c r="B701">
-        <v>78.17963027330048</v>
+        <v>78.17963027330046</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>704</v>
       </c>
       <c r="B704">
-        <v>93.30004437095526</v>
+        <v>93.30004437095523</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>59.3926044109536</v>
+        <v>59.39260441095359</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6111,7 +6111,7 @@
         <v>721</v>
       </c>
       <c r="B721">
-        <v>84.73797397646406</v>
+        <v>84.73797397646405</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6119,7 +6119,7 @@
         <v>722</v>
       </c>
       <c r="B722">
-        <v>88.5027645391077</v>
+        <v>88.50276453910769</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>723</v>
       </c>
       <c r="B723">
-        <v>94.08488861249036</v>
+        <v>94.08488861249032</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>730</v>
       </c>
       <c r="B730">
-        <v>63.37426754220663</v>
+        <v>63.37426754220662</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>87.68275177293326</v>
+        <v>87.68275177293324</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>45.54558397628235</v>
+        <v>45.54558397628234</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6423,7 +6423,7 @@
         <v>760</v>
       </c>
       <c r="B760">
-        <v>44.67692141769013</v>
+        <v>44.67692141769012</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>765</v>
       </c>
       <c r="B765">
-        <v>47.57363556381886</v>
+        <v>47.57363556381885</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6511,7 +6511,7 @@
         <v>771</v>
       </c>
       <c r="B771">
-        <v>84.47508925478483</v>
+        <v>84.47508925478482</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6567,7 +6567,7 @@
         <v>778</v>
       </c>
       <c r="B778">
-        <v>89.34651605941372</v>
+        <v>89.3465160594137</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>814</v>
       </c>
       <c r="B814">
-        <v>91.35141503489598</v>
+        <v>91.35141503489596</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>822</v>
       </c>
       <c r="B822">
-        <v>126.6902139477197</v>
+        <v>126.6902139477196</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>828</v>
       </c>
       <c r="B828">
-        <v>74.73282178760439</v>
+        <v>74.73282178760438</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>59.98109105658558</v>
+        <v>59.98109105658557</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7279,7 +7279,7 @@
         <v>867</v>
       </c>
       <c r="B867">
-        <v>141.175836175634</v>
+        <v>141.1758361756339</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>882</v>
       </c>
       <c r="B882">
-        <v>58.76807002756627</v>
+        <v>58.76807002756626</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7407,7 +7407,7 @@
         <v>883</v>
       </c>
       <c r="B883">
-        <v>69.22748232635102</v>
+        <v>69.22748232635101</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>79.62945270155815</v>
+        <v>79.62945270155814</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7543,7 +7543,7 @@
         <v>900</v>
       </c>
       <c r="B900">
-        <v>75.97866677295377</v>
+        <v>75.97866677295376</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>62.95898588042351</v>
+        <v>62.9589858804235</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7727,7 +7727,7 @@
         <v>923</v>
       </c>
       <c r="B923">
-        <v>50.82174188530255</v>
+        <v>50.82174188530254</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7791,7 +7791,7 @@
         <v>931</v>
       </c>
       <c r="B931">
-        <v>44.27189724226015</v>
+        <v>44.27189724226014</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7799,7 +7799,7 @@
         <v>932</v>
       </c>
       <c r="B932">
-        <v>36.68252962508595</v>
+        <v>36.68252962508594</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -8015,7 +8015,7 @@
         <v>959</v>
       </c>
       <c r="B959">
-        <v>27.71634357538462</v>
+        <v>27.71634357538461</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8055,7 +8055,7 @@
         <v>964</v>
       </c>
       <c r="B964">
-        <v>48.01939661362277</v>
+        <v>48.01939661362276</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>995</v>
       </c>
       <c r="B995">
-        <v>4.489731083876346</v>
+        <v>4.489731083876345</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>2.157591917335211</v>
+        <v>2.15759191733521</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>998</v>
       </c>
       <c r="B998">
-        <v>4.508897929804798</v>
+        <v>4.508897929804797</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>1020</v>
       </c>
       <c r="B1020">
-        <v>52.02948763562596</v>
+        <v>52.02948763562595</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>1021</v>
       </c>
       <c r="B1021">
-        <v>40.94202410098994</v>
+        <v>40.94202410098993</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>1023</v>
       </c>
       <c r="B1023">
-        <v>30.53067545254565</v>
+        <v>30.53067545254564</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>1027</v>
       </c>
       <c r="B1027">
-        <v>61.4942168291941</v>
+        <v>61.49421682919409</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>1028</v>
       </c>
       <c r="B1028">
-        <v>56.81387234177242</v>
+        <v>56.81387234177241</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8599,7 +8599,7 @@
         <v>1032</v>
       </c>
       <c r="B1032">
-        <v>75.08978231269391</v>
+        <v>75.0897823126939</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>1050</v>
       </c>
       <c r="B1050">
-        <v>48.12402297442487</v>
+        <v>48.12402297442486</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>53.43564247912309</v>
+        <v>53.43564247912308</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8991,7 +8991,7 @@
         <v>1081</v>
       </c>
       <c r="B1081">
-        <v>46.49630642569976</v>
+        <v>46.49630642569975</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>64.30300966372444</v>
+        <v>64.30300966372442</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9087,7 +9087,7 @@
         <v>1093</v>
       </c>
       <c r="B1093">
-        <v>43.98908368995195</v>
+        <v>43.98908368995194</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9111,7 +9111,7 @@
         <v>1096</v>
       </c>
       <c r="B1096">
-        <v>26.98264023009594</v>
+        <v>26.98264023009593</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>1101</v>
       </c>
       <c r="B1101">
-        <v>31.8222395199262</v>
+        <v>31.82223951992619</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9199,7 +9199,7 @@
         <v>1107</v>
       </c>
       <c r="B1107">
-        <v>63.41265984827127</v>
+        <v>63.41265984827126</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>1111</v>
       </c>
       <c r="B1111">
-        <v>89.29288405933869</v>
+        <v>89.29288405933868</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9287,7 +9287,7 @@
         <v>1118</v>
       </c>
       <c r="B1118">
-        <v>79.54006603476644</v>
+        <v>79.54006603476643</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>1127</v>
       </c>
       <c r="B1127">
-        <v>67.4239231544291</v>
+        <v>67.42392315442909</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9367,7 +9367,7 @@
         <v>1128</v>
       </c>
       <c r="B1128">
-        <v>77.0436869274491</v>
+        <v>77.04368692744909</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>1130</v>
       </c>
       <c r="B1130">
-        <v>97.44817185216796</v>
+        <v>97.44817185216792</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>1131</v>
       </c>
       <c r="B1131">
-        <v>103.175366089688</v>
+        <v>103.1753660896879</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>1141</v>
       </c>
       <c r="B1141">
-        <v>57.18871020022028</v>
+        <v>57.18871020022027</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>1149</v>
       </c>
       <c r="B1149">
-        <v>62.03669132175625</v>
+        <v>62.03669132175624</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -9615,7 +9615,7 @@
         <v>1159</v>
       </c>
       <c r="B1159">
-        <v>89.53203002688635</v>
+        <v>89.53203002688633</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -9631,7 +9631,7 @@
         <v>1161</v>
       </c>
       <c r="B1161">
-        <v>59.89199746083253</v>
+        <v>59.89199746083252</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9719,7 +9719,7 @@
         <v>1172</v>
       </c>
       <c r="B1172">
-        <v>62.71983991287585</v>
+        <v>62.71983991287584</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
@@ -9791,7 +9791,7 @@
         <v>1181</v>
       </c>
       <c r="B1181">
-        <v>90.3936588805507</v>
+        <v>90.39365888055067</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -9847,7 +9847,7 @@
         <v>1188</v>
       </c>
       <c r="B1188">
-        <v>47.25506734479398</v>
+        <v>47.25506734479397</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>55.7517828976637</v>
+        <v>55.75178289766369</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10007,7 +10007,7 @@
         <v>1208</v>
       </c>
       <c r="B1208">
-        <v>54.19792025068125</v>
+        <v>54.19792025068124</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
@@ -10015,7 +10015,7 @@
         <v>1209</v>
       </c>
       <c r="B1209">
-        <v>48.08064846070299</v>
+        <v>48.08064846070298</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
@@ -10287,7 +10287,7 @@
         <v>1243</v>
       </c>
       <c r="B1243">
-        <v>3.580536800637254</v>
+        <v>3.580536800637253</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10471,7 +10471,7 @@
         <v>1266</v>
       </c>
       <c r="B1266">
-        <v>18.66346711244726</v>
+        <v>18.66346711244725</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10487,7 +10487,7 @@
         <v>1268</v>
       </c>
       <c r="B1268">
-        <v>6.381006417669606</v>
+        <v>6.381006417669605</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
@@ -10551,7 +10551,7 @@
         <v>1276</v>
       </c>
       <c r="B1276">
-        <v>26.57884695302834</v>
+        <v>26.57884695302833</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10703,7 +10703,7 @@
         <v>1295</v>
       </c>
       <c r="B1295">
-        <v>6.13274594081958</v>
+        <v>6.132745940819579</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -10871,7 +10871,7 @@
         <v>1316</v>
       </c>
       <c r="B1316">
-        <v>0.8739817979439309</v>
+        <v>0.8739817979439308</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -11119,7 +11119,7 @@
         <v>1347</v>
       </c>
       <c r="B1347">
-        <v>9.653496249569921</v>
+        <v>9.653496249569915</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
@@ -11151,7 +11151,7 @@
         <v>1351</v>
       </c>
       <c r="B1351">
-        <v>29.979115757785</v>
+        <v>29.97911575778499</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
@@ -11175,7 +11175,7 @@
         <v>1354</v>
       </c>
       <c r="B1354">
-        <v>5.244125244494515</v>
+        <v>5.244125244494514</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>1374</v>
       </c>
       <c r="B1374">
-        <v>33.61524813445631</v>
+        <v>33.6152481344563</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11375,7 +11375,7 @@
         <v>1379</v>
       </c>
       <c r="B1379">
-        <v>9.618825945696283</v>
+        <v>9.61882594569628</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>1.5046589503016</v>
+        <v>1.504658950301599</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11407,7 +11407,7 @@
         <v>1383</v>
       </c>
       <c r="B1383">
-        <v>0.3277501346661423</v>
+        <v>0.3277501346661422</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
@@ -11799,7 +11799,7 @@
         <v>1432</v>
       </c>
       <c r="B1432">
-        <v>41.09998939082841</v>
+        <v>41.0999893908284</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
@@ -11807,7 +11807,7 @@
         <v>1433</v>
       </c>
       <c r="B1433">
-        <v>32.72607060315779</v>
+        <v>32.72607060315778</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
@@ -11951,7 +11951,7 @@
         <v>1451</v>
       </c>
       <c r="B1451">
-        <v>46.61851704882154</v>
+        <v>46.61851704882153</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
@@ -11967,7 +11967,7 @@
         <v>1453</v>
       </c>
       <c r="B1453">
-        <v>34.05338933725502</v>
+        <v>34.05338933725501</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
@@ -12111,7 +12111,7 @@
         <v>1471</v>
       </c>
       <c r="B1471">
-        <v>118.7998623738403</v>
+        <v>118.7998623738402</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
@@ -12127,7 +12127,7 @@
         <v>1473</v>
       </c>
       <c r="B1473">
-        <v>59.79469787599696</v>
+        <v>59.79469787599695</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>38.9854818468868</v>
+        <v>38.98548184688679</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12255,7 +12255,7 @@
         <v>1489</v>
       </c>
       <c r="B1489">
-        <v>74.35329479253795</v>
+        <v>74.35329479253794</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
@@ -12271,7 +12271,7 @@
         <v>1491</v>
       </c>
       <c r="B1491">
-        <v>85.46127329988026</v>
+        <v>85.46127329988025</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -12311,7 +12311,7 @@
         <v>1496</v>
       </c>
       <c r="B1496">
-        <v>66.18599108712358</v>
+        <v>66.18599108712357</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
@@ -12447,7 +12447,7 @@
         <v>1513</v>
       </c>
       <c r="B1513">
-        <v>48.12138533507692</v>
+        <v>48.12138533507691</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
@@ -12495,7 +12495,7 @@
         <v>1519</v>
       </c>
       <c r="B1519">
-        <v>82.57012750348609</v>
+        <v>82.57012750348608</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
@@ -12543,7 +12543,7 @@
         <v>1525</v>
       </c>
       <c r="B1525">
-        <v>15.54568948185627</v>
+        <v>15.54568948185626</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
@@ -12703,7 +12703,7 @@
         <v>1545</v>
       </c>
       <c r="B1545">
-        <v>32.26975899596207</v>
+        <v>32.26975899596206</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -12807,7 +12807,7 @@
         <v>1558</v>
       </c>
       <c r="B1558">
-        <v>7.626294568045528</v>
+        <v>7.626294568045527</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
@@ -12871,7 +12871,7 @@
         <v>1566</v>
       </c>
       <c r="B1566">
-        <v>44.93423778963479</v>
+        <v>44.93423778963478</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -13071,7 +13071,7 @@
         <v>1591</v>
       </c>
       <c r="B1591">
-        <v>25.4300670956836</v>
+        <v>25.43006709568359</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13087,7 +13087,7 @@
         <v>1593</v>
       </c>
       <c r="B1593">
-        <v>34.76144896666083</v>
+        <v>34.76144896666082</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
@@ -13103,7 +13103,7 @@
         <v>1595</v>
       </c>
       <c r="B1595">
-        <v>52.26159989824574</v>
+        <v>52.26159989824573</v>
       </c>
     </row>
     <row r="1596" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>42.71012167723384</v>
+        <v>42.71012167723383</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13175,7 +13175,7 @@
         <v>1604</v>
       </c>
       <c r="B1604">
-        <v>57.51196755586374</v>
+        <v>57.51196755586373</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
@@ -13223,7 +13223,7 @@
         <v>1610</v>
       </c>
       <c r="B1610">
-        <v>87.16548138969598</v>
+        <v>87.16548138969597</v>
       </c>
     </row>
     <row r="1611" spans="1:2">
@@ -13231,7 +13231,7 @@
         <v>1611</v>
       </c>
       <c r="B1611">
-        <v>96.03615558789758</v>
+        <v>96.03615558789755</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>32.50187125858186</v>
+        <v>32.50187125858185</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>55.44347216499197</v>
+        <v>55.44347216499196</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13407,7 +13407,7 @@
         <v>1633</v>
       </c>
       <c r="B1633">
-        <v>88.09275815602048</v>
+        <v>88.09275815602047</v>
       </c>
     </row>
     <row r="1634" spans="1:2">
@@ -13535,7 +13535,7 @@
         <v>1649</v>
       </c>
       <c r="B1649">
-        <v>20.95516540636352</v>
+        <v>20.95516540636351</v>
       </c>
     </row>
     <row r="1650" spans="1:2">
@@ -13575,7 +13575,7 @@
         <v>1654</v>
       </c>
       <c r="B1654">
-        <v>38.29002427214343</v>
+        <v>38.29002427214342</v>
       </c>
     </row>
     <row r="1655" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>13.98772384033256</v>
+        <v>13.98772384033255</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13735,7 +13735,7 @@
         <v>1674</v>
       </c>
       <c r="B1674">
-        <v>16.26347906974564</v>
+        <v>16.26347906974563</v>
       </c>
     </row>
     <row r="1675" spans="1:2">
@@ -13751,7 +13751,7 @@
         <v>1676</v>
       </c>
       <c r="B1676">
-        <v>22.11461304951553</v>
+        <v>22.11461304951552</v>
       </c>
     </row>
     <row r="1677" spans="1:2">
@@ -13823,7 +13823,7 @@
         <v>1685</v>
       </c>
       <c r="B1685">
-        <v>71.63242326960602</v>
+        <v>71.63242326960601</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
@@ -13831,7 +13831,7 @@
         <v>1686</v>
       </c>
       <c r="B1686">
-        <v>84.62338320034748</v>
+        <v>84.62338320034746</v>
       </c>
     </row>
     <row r="1687" spans="1:2">
@@ -13847,7 +13847,7 @@
         <v>1688</v>
       </c>
       <c r="B1688">
-        <v>46.3049310374539</v>
+        <v>46.30493103745389</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -14031,7 +14031,7 @@
         <v>1711</v>
       </c>
       <c r="B1711">
-        <v>65.9409836988027</v>
+        <v>65.94098369880268</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14223,7 +14223,7 @@
         <v>1735</v>
       </c>
       <c r="B1735">
-        <v>69.56861701535283</v>
+        <v>69.56861701535281</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -14375,7 +14375,7 @@
         <v>1754</v>
       </c>
       <c r="B1754">
-        <v>61.60616996596274</v>
+        <v>61.60616996596273</v>
       </c>
     </row>
     <row r="1755" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>68.02735642303281</v>
+        <v>68.0273564230328</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14575,7 +14575,7 @@
         <v>1779</v>
       </c>
       <c r="B1779">
-        <v>55.98594665755412</v>
+        <v>55.98594665755411</v>
       </c>
     </row>
     <row r="1780" spans="1:2">
@@ -14759,7 +14759,7 @@
         <v>1802</v>
       </c>
       <c r="B1802">
-        <v>50.22065318500813</v>
+        <v>50.22065318500812</v>
       </c>
     </row>
     <row r="1803" spans="1:2">
@@ -14775,7 +14775,7 @@
         <v>1804</v>
       </c>
       <c r="B1804">
-        <v>55.48391596832723</v>
+        <v>55.48391596832722</v>
       </c>
     </row>
     <row r="1805" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>64.89120323831776</v>
+        <v>64.89120323831774</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -14943,7 +14943,7 @@
         <v>1825</v>
       </c>
       <c r="B1825">
-        <v>61.61144524465864</v>
+        <v>61.61144524465863</v>
       </c>
     </row>
     <row r="1826" spans="1:2">
@@ -14959,7 +14959,7 @@
         <v>1827</v>
       </c>
       <c r="B1827">
-        <v>64.58846085538059</v>
+        <v>64.58846085538057</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
@@ -14967,7 +14967,7 @@
         <v>1828</v>
       </c>
       <c r="B1828">
-        <v>68.97045902544502</v>
+        <v>68.97045902544501</v>
       </c>
     </row>
     <row r="1829" spans="1:2">
@@ -15079,7 +15079,7 @@
         <v>1842</v>
       </c>
       <c r="B1842">
-        <v>4.347122716463735</v>
+        <v>4.347122716463734</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
@@ -15159,7 +15159,7 @@
         <v>1852</v>
       </c>
       <c r="B1852">
-        <v>50.8319993716557</v>
+        <v>50.83199937165569</v>
       </c>
     </row>
     <row r="1853" spans="1:2">
@@ -15223,7 +15223,7 @@
         <v>1860</v>
       </c>
       <c r="B1860">
-        <v>3.889990510359769</v>
+        <v>3.889990510359768</v>
       </c>
     </row>
     <row r="1861" spans="1:2">
@@ -15351,7 +15351,7 @@
         <v>1876</v>
       </c>
       <c r="B1876">
-        <v>32.72841517146708</v>
+        <v>32.72841517146707</v>
       </c>
     </row>
     <row r="1877" spans="1:2">
@@ -15367,7 +15367,7 @@
         <v>1878</v>
       </c>
       <c r="B1878">
-        <v>46.15722323396858</v>
+        <v>46.15722323396857</v>
       </c>
     </row>
     <row r="1879" spans="1:2">
@@ -15471,7 +15471,7 @@
         <v>1891</v>
       </c>
       <c r="B1891">
-        <v>8.070560955552262</v>
+        <v>8.07056095555226</v>
       </c>
     </row>
     <row r="1892" spans="1:2">
@@ -15495,7 +15495,7 @@
         <v>1894</v>
       </c>
       <c r="B1894">
-        <v>13.66358727157311</v>
+        <v>13.6635872715731</v>
       </c>
     </row>
     <row r="1895" spans="1:2">
@@ -15519,7 +15519,7 @@
         <v>1897</v>
       </c>
       <c r="B1897">
-        <v>37.138548161243</v>
+        <v>37.13854816124299</v>
       </c>
     </row>
     <row r="1898" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>5.287704907943457</v>
+        <v>5.287704907943456</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15695,7 +15695,7 @@
         <v>1919</v>
       </c>
       <c r="B1919">
-        <v>26.71574043518705</v>
+        <v>26.71574043518704</v>
       </c>
     </row>
     <row r="1920" spans="1:2">
@@ -15711,7 +15711,7 @@
         <v>1921</v>
       </c>
       <c r="B1921">
-        <v>41.70899100916668</v>
+        <v>41.70899100916667</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
@@ -15727,7 +15727,7 @@
         <v>1923</v>
       </c>
       <c r="B1923">
-        <v>54.26620580268934</v>
+        <v>54.26620580268933</v>
       </c>
     </row>
     <row r="1924" spans="1:2">
@@ -15735,7 +15735,7 @@
         <v>1924</v>
       </c>
       <c r="B1924">
-        <v>58.45975929489453</v>
+        <v>58.45975929489452</v>
       </c>
     </row>
     <row r="1925" spans="1:2">
@@ -15751,7 +15751,7 @@
         <v>1926</v>
       </c>
       <c r="B1926">
-        <v>81.69794809242993</v>
+        <v>81.69794809242991</v>
       </c>
     </row>
     <row r="1927" spans="1:2">
@@ -15871,7 +15871,7 @@
         <v>1941</v>
       </c>
       <c r="B1941">
-        <v>3.448068691162326</v>
+        <v>3.448068691162325</v>
       </c>
     </row>
     <row r="1942" spans="1:2">
@@ -15943,7 +15943,7 @@
         <v>1950</v>
       </c>
       <c r="B1950">
-        <v>53.81018726653229</v>
+        <v>53.81018726653228</v>
       </c>
     </row>
     <row r="1951" spans="1:2">
@@ -15991,7 +15991,7 @@
         <v>1956</v>
       </c>
       <c r="B1956">
-        <v>36.37949417111012</v>
+        <v>36.37949417111011</v>
       </c>
     </row>
     <row r="1957" spans="1:2">
@@ -16047,7 +16047,7 @@
         <v>1963</v>
       </c>
       <c r="B1963">
-        <v>29.32410198637689</v>
+        <v>29.32410198637688</v>
       </c>
     </row>
     <row r="1964" spans="1:2">
@@ -16135,7 +16135,7 @@
         <v>1974</v>
       </c>
       <c r="B1974">
-        <v>75.2832091982104</v>
+        <v>75.28320919821039</v>
       </c>
     </row>
     <row r="1975" spans="1:2">
@@ -16143,7 +16143,7 @@
         <v>1975</v>
       </c>
       <c r="B1975">
-        <v>70.52959695112338</v>
+        <v>70.52959695112337</v>
       </c>
     </row>
     <row r="1976" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>30.36626259985664</v>
+        <v>30.36626259985663</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16511,7 +16511,7 @@
         <v>2021</v>
       </c>
       <c r="B2021">
-        <v>54.05226394446656</v>
+        <v>54.05226394446655</v>
       </c>
     </row>
     <row r="2022" spans="1:2">
@@ -16535,7 +16535,7 @@
         <v>2024</v>
       </c>
       <c r="B2024">
-        <v>47.46138935601157</v>
+        <v>47.46138935601156</v>
       </c>
     </row>
     <row r="2025" spans="1:2">
@@ -16727,7 +16727,7 @@
         <v>2048</v>
       </c>
       <c r="B2048">
-        <v>46.40164448021214</v>
+        <v>46.40164448021213</v>
       </c>
     </row>
     <row r="2049" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>33.60733521641245</v>
+        <v>33.60733521641244</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -16879,7 +16879,7 @@
         <v>2067</v>
       </c>
       <c r="B2067">
-        <v>47.54813838345533</v>
+        <v>47.54813838345532</v>
       </c>
     </row>
     <row r="2068" spans="1:2">
@@ -17023,7 +17023,7 @@
         <v>2085</v>
       </c>
       <c r="B2085">
-        <v>7.455023853051837</v>
+        <v>7.455023853051836</v>
       </c>
     </row>
     <row r="2086" spans="1:2">
@@ -17103,7 +17103,7 @@
         <v>2095</v>
       </c>
       <c r="B2095">
-        <v>35.9360776896155</v>
+        <v>35.93607768961549</v>
       </c>
     </row>
     <row r="2096" spans="1:2">
@@ -17151,7 +17151,7 @@
         <v>2101</v>
       </c>
       <c r="B2101">
-        <v>9.301283475306716</v>
+        <v>9.301283475306713</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
@@ -17167,7 +17167,7 @@
         <v>2103</v>
       </c>
       <c r="B2103">
-        <v>7.537318200707944</v>
+        <v>7.537318200707943</v>
       </c>
     </row>
     <row r="2104" spans="1:2">
@@ -17231,7 +17231,7 @@
         <v>2111</v>
       </c>
       <c r="B2111">
-        <v>10.68220490237511</v>
+        <v>10.6822049023751</v>
       </c>
     </row>
     <row r="2112" spans="1:2">
@@ -17263,7 +17263,7 @@
         <v>2115</v>
       </c>
       <c r="B2115">
-        <v>37.42399935289915</v>
+        <v>37.42399935289914</v>
       </c>
     </row>
     <row r="2116" spans="1:2">
@@ -17287,7 +17287,7 @@
         <v>2118</v>
       </c>
       <c r="B2118">
-        <v>53.96317034871351</v>
+        <v>53.9631703487135</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17303,7 +17303,7 @@
         <v>2120</v>
       </c>
       <c r="B2120">
-        <v>19.95810842573375</v>
+        <v>19.95810842573374</v>
       </c>
     </row>
     <row r="2121" spans="1:2">
@@ -17455,7 +17455,7 @@
         <v>2139</v>
       </c>
       <c r="B2139">
-        <v>33.32979694280016</v>
+        <v>33.32979694280015</v>
       </c>
     </row>
     <row r="2140" spans="1:2">
@@ -17487,7 +17487,7 @@
         <v>2143</v>
       </c>
       <c r="B2143">
-        <v>42.87834445342545</v>
+        <v>42.87834445342544</v>
       </c>
     </row>
     <row r="2144" spans="1:2">
@@ -17583,7 +17583,7 @@
         <v>2155</v>
       </c>
       <c r="B2155">
-        <v>5.229471692561448</v>
+        <v>5.229471692561447</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -17599,7 +17599,7 @@
         <v>2157</v>
       </c>
       <c r="B2157">
-        <v>7.305323166503622</v>
+        <v>7.305323166503621</v>
       </c>
     </row>
     <row r="2158" spans="1:2">
@@ -17615,7 +17615,7 @@
         <v>2159</v>
       </c>
       <c r="B2159">
-        <v>27.46269059142322</v>
+        <v>27.46269059142321</v>
       </c>
     </row>
     <row r="2160" spans="1:2">
@@ -17719,7 +17719,7 @@
         <v>2172</v>
       </c>
       <c r="B2172">
-        <v>3.788265552840416</v>
+        <v>3.788265552840415</v>
       </c>
     </row>
     <row r="2173" spans="1:2">
@@ -17735,7 +17735,7 @@
         <v>2174</v>
       </c>
       <c r="B2174">
-        <v>1.657483774121945</v>
+        <v>1.657483774121944</v>
       </c>
     </row>
     <row r="2175" spans="1:2">
@@ -18063,7 +18063,7 @@
         <v>2215</v>
       </c>
       <c r="B2215">
-        <v>38.1704512883696</v>
+        <v>38.17045128836959</v>
       </c>
     </row>
     <row r="2216" spans="1:2">
@@ -18087,7 +18087,7 @@
         <v>2218</v>
       </c>
       <c r="B2218">
-        <v>0.6622145268280161</v>
+        <v>0.662214526828016</v>
       </c>
     </row>
     <row r="2219" spans="1:2">
@@ -18263,7 +18263,7 @@
         <v>2240</v>
       </c>
       <c r="B2240">
-        <v>2.961072546218769</v>
+        <v>2.961072546218768</v>
       </c>
     </row>
     <row r="2241" spans="1:2">
@@ -18447,7 +18447,7 @@
         <v>2263</v>
       </c>
       <c r="B2263">
-        <v>5.925779173316937</v>
+        <v>5.925779173316936</v>
       </c>
     </row>
     <row r="2264" spans="1:2">
@@ -18455,7 +18455,7 @@
         <v>2264</v>
       </c>
       <c r="B2264">
-        <v>2.509409045696223</v>
+        <v>2.509409045696222</v>
       </c>
     </row>
     <row r="2265" spans="1:2">
@@ -18583,7 +18583,7 @@
         <v>2280</v>
       </c>
       <c r="B2280">
-        <v>6.56763405508915</v>
+        <v>6.567634055089149</v>
       </c>
     </row>
     <row r="2281" spans="1:2">
@@ -18599,7 +18599,7 @@
         <v>2282</v>
       </c>
       <c r="B2282">
-        <v>16.43404641424654</v>
+        <v>16.43404641424653</v>
       </c>
     </row>
     <row r="2283" spans="1:2">
@@ -18815,7 +18815,7 @@
         <v>2309</v>
       </c>
       <c r="B2309">
-        <v>4.551627687241622</v>
+        <v>4.551627687241621</v>
       </c>
     </row>
     <row r="2310" spans="1:2">
@@ -18839,7 +18839,7 @@
         <v>2312</v>
       </c>
       <c r="B2312">
-        <v>0.1197479471839097</v>
+        <v>0.1197479471839096</v>
       </c>
     </row>
     <row r="2313" spans="1:2">
@@ -19039,7 +19039,7 @@
         <v>2337</v>
       </c>
       <c r="B2337">
-        <v>4.246452814683563</v>
+        <v>4.246452814683562</v>
       </c>
     </row>
     <row r="2338" spans="1:2">
@@ -19151,7 +19151,7 @@
         <v>2351</v>
       </c>
       <c r="B2351">
-        <v>5.313407238034056</v>
+        <v>5.313407238034055</v>
       </c>
     </row>
     <row r="2352" spans="1:2">
@@ -19183,7 +19183,7 @@
         <v>2355</v>
       </c>
       <c r="B2355">
-        <v>37.93863209678848</v>
+        <v>37.93863209678847</v>
       </c>
     </row>
     <row r="2356" spans="1:2">
@@ -19207,7 +19207,7 @@
         <v>2358</v>
       </c>
       <c r="B2358">
-        <v>70.30246689616084</v>
+        <v>70.30246689616082</v>
       </c>
     </row>
     <row r="2359" spans="1:2">
@@ -19343,7 +19343,7 @@
         <v>2375</v>
       </c>
       <c r="B2375">
-        <v>44.08872784309681</v>
+        <v>44.0887278430968</v>
       </c>
     </row>
     <row r="2376" spans="1:2">
@@ -19511,7 +19511,7 @@
         <v>2396</v>
       </c>
       <c r="B2396">
-        <v>6.762321146071882</v>
+        <v>6.762321146071881</v>
       </c>
     </row>
     <row r="2397" spans="1:2">
@@ -19575,7 +19575,7 @@
         <v>2404</v>
       </c>
       <c r="B2404">
-        <v>51.05356107688368</v>
+        <v>51.05356107688367</v>
       </c>
     </row>
     <row r="2405" spans="1:2">
@@ -19599,7 +19599,7 @@
         <v>2407</v>
       </c>
       <c r="B2407">
-        <v>55.00298639388397</v>
+        <v>55.00298639388396</v>
       </c>
     </row>
     <row r="2408" spans="1:2">
@@ -19623,7 +19623,7 @@
         <v>2410</v>
       </c>
       <c r="B2410">
-        <v>32.99862666911284</v>
+        <v>32.99862666911283</v>
       </c>
     </row>
     <row r="2411" spans="1:2">
@@ -19823,7 +19823,7 @@
         <v>2435</v>
       </c>
       <c r="B2435">
-        <v>0.8187203228939477</v>
+        <v>0.8187203228939476</v>
       </c>
     </row>
     <row r="2436" spans="1:2">
@@ -19991,7 +19991,7 @@
         <v>2456</v>
       </c>
       <c r="B2456">
-        <v>0.1530100447167791</v>
+        <v>0.153010044716779</v>
       </c>
     </row>
     <row r="2457" spans="1:2">
@@ -20167,7 +20167,7 @@
         <v>2478</v>
       </c>
       <c r="B2478">
-        <v>58.97966731747976</v>
+        <v>58.97966731747975</v>
       </c>
     </row>
     <row r="2479" spans="1:2">
@@ -20255,7 +20255,7 @@
         <v>2489</v>
       </c>
       <c r="B2489">
-        <v>0.7133407695224877</v>
+        <v>0.7133407695224876</v>
       </c>
     </row>
     <row r="2490" spans="1:2">
@@ -20319,7 +20319,7 @@
         <v>2497</v>
       </c>
       <c r="B2497">
-        <v>29.33816939623264</v>
+        <v>29.33816939623263</v>
       </c>
     </row>
     <row r="2498" spans="1:2">
@@ -20551,7 +20551,7 @@
         <v>2526</v>
       </c>
       <c r="B2526">
-        <v>57.67286355608882</v>
+        <v>57.67286355608881</v>
       </c>
     </row>
     <row r="2527" spans="1:2">
@@ -20767,7 +20767,7 @@
         <v>2553</v>
       </c>
       <c r="B2553">
-        <v>8.720914897445653</v>
+        <v>8.720914897445651</v>
       </c>
     </row>
     <row r="2554" spans="1:2">
@@ -20791,7 +20791,7 @@
         <v>2556</v>
       </c>
       <c r="B2556">
-        <v>3.300038509534481</v>
+        <v>3.30003850953448</v>
       </c>
     </row>
     <row r="2557" spans="1:2">
@@ -21015,7 +21015,7 @@
         <v>2584</v>
       </c>
       <c r="B2584">
-        <v>6.195170072054446</v>
+        <v>6.195170072054445</v>
       </c>
     </row>
     <row r="2585" spans="1:2">
@@ -21055,7 +21055,7 @@
         <v>2589</v>
       </c>
       <c r="B2589">
-        <v>7.768287486276949</v>
+        <v>7.768287486276948</v>
       </c>
     </row>
     <row r="2590" spans="1:2">
@@ -21127,7 +21127,7 @@
         <v>2598</v>
       </c>
       <c r="B2598">
-        <v>60.36032498061336</v>
+        <v>60.36032498061335</v>
       </c>
     </row>
     <row r="2599" spans="1:2">
@@ -21263,7 +21263,7 @@
         <v>2615</v>
       </c>
       <c r="B2615">
-        <v>4.828931504022987</v>
+        <v>4.828931504022986</v>
       </c>
     </row>
     <row r="2616" spans="1:2">
@@ -21327,7 +21327,7 @@
         <v>2623</v>
       </c>
       <c r="B2623">
-        <v>28.69924522484704</v>
+        <v>28.69924522484703</v>
       </c>
     </row>
     <row r="2624" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>0.2948792869698858</v>
+        <v>0.2948792869698857</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21439,7 +21439,7 @@
         <v>2637</v>
       </c>
       <c r="B2637">
-        <v>0.7881031914849969</v>
+        <v>0.7881031914849967</v>
       </c>
     </row>
     <row r="2638" spans="1:2">
@@ -21479,7 +21479,7 @@
         <v>2642</v>
       </c>
       <c r="B2642">
-        <v>31.73285285313449</v>
+        <v>31.73285285313448</v>
       </c>
     </row>
     <row r="2643" spans="1:2">
@@ -21495,7 +21495,7 @@
         <v>2644</v>
       </c>
       <c r="B2644">
-        <v>40.24392888689862</v>
+        <v>40.24392888689861</v>
       </c>
     </row>
     <row r="2645" spans="1:2">
@@ -21575,7 +21575,7 @@
         <v>2654</v>
       </c>
       <c r="B2654">
-        <v>1.411356854433374</v>
+        <v>1.411356854433373</v>
       </c>
     </row>
     <row r="2655" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>28.73312423691629</v>
+        <v>28.73312423691628</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21679,7 +21679,7 @@
         <v>2667</v>
       </c>
       <c r="B2667">
-        <v>37.81612840262803</v>
+        <v>37.81612840262802</v>
       </c>
     </row>
     <row r="2668" spans="1:2">
@@ -22031,7 +22031,7 @@
         <v>2711</v>
       </c>
       <c r="B2711">
-        <v>27.93345060082494</v>
+        <v>27.93345060082493</v>
       </c>
     </row>
     <row r="2712" spans="1:2">
@@ -22143,7 +22143,7 @@
         <v>2725</v>
       </c>
       <c r="B2725">
-        <v>0.3739791603045829</v>
+        <v>0.3739791603045828</v>
       </c>
     </row>
     <row r="2726" spans="1:2">
@@ -22151,7 +22151,7 @@
         <v>2726</v>
       </c>
       <c r="B2726">
-        <v>0.4170254344631613</v>
+        <v>0.4170254344631612</v>
       </c>
     </row>
     <row r="2727" spans="1:2">
@@ -22263,7 +22263,7 @@
         <v>2740</v>
       </c>
       <c r="B2740">
-        <v>24.40877314015654</v>
+        <v>24.40877314015653</v>
       </c>
     </row>
     <row r="2741" spans="1:2">
@@ -22407,7 +22407,7 @@
         <v>2758</v>
       </c>
       <c r="B2758">
-        <v>0.9565604245075382</v>
+        <v>0.956560424507538</v>
       </c>
     </row>
     <row r="2759" spans="1:2">
@@ -22487,7 +22487,7 @@
         <v>2768</v>
       </c>
       <c r="B2768">
-        <v>4.150237592691044</v>
+        <v>4.150237592691043</v>
       </c>
     </row>
     <row r="2769" spans="1:2">
@@ -22687,7 +22687,7 @@
         <v>2793</v>
       </c>
       <c r="B2793">
-        <v>0.4470886616090421</v>
+        <v>0.447088661609042</v>
       </c>
     </row>
     <row r="2794" spans="1:2">
@@ -22799,7 +22799,7 @@
         <v>2807</v>
       </c>
       <c r="B2807">
-        <v>8.075806927144299</v>
+        <v>8.075806927144297</v>
       </c>
     </row>
     <row r="2808" spans="1:2">
@@ -22975,7 +22975,7 @@
         <v>2829</v>
       </c>
       <c r="B2829">
-        <v>0.7879478638345064</v>
+        <v>0.7879478638345063</v>
       </c>
     </row>
     <row r="2830" spans="1:2">
@@ -23063,7 +23063,7 @@
         <v>2840</v>
       </c>
       <c r="B2840">
-        <v>6.116861490524134</v>
+        <v>6.116861490524133</v>
       </c>
     </row>
     <row r="2841" spans="1:2">
@@ -23175,7 +23175,7 @@
         <v>2854</v>
       </c>
       <c r="B2854">
-        <v>0.8024343652755367</v>
+        <v>0.8024343652755366</v>
       </c>
     </row>
     <row r="2855" spans="1:2">
@@ -24007,7 +24007,7 @@
         <v>2958</v>
       </c>
       <c r="B2958">
-        <v>39.68885233967403</v>
+        <v>39.68885233967402</v>
       </c>
     </row>
     <row r="2959" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>4.103844447270952</v>
+        <v>4.103844447270951</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>5.771125586215346</v>
+        <v>5.771125586215345</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -25335,7 +25335,7 @@
         <v>3124</v>
       </c>
       <c r="B3124">
-        <v>8.345871889270729</v>
+        <v>8.345871889270727</v>
       </c>
     </row>
     <row r="3125" spans="1:2">
@@ -25887,7 +25887,7 @@
         <v>3193</v>
       </c>
       <c r="B3193">
-        <v>0.2627836121708886</v>
+        <v>0.2627836121708885</v>
       </c>
     </row>
     <row r="3194" spans="1:2">
@@ -25895,7 +25895,7 @@
         <v>3194</v>
       </c>
       <c r="B3194">
-        <v>1.386882491994765</v>
+        <v>1.386882491994764</v>
       </c>
     </row>
     <row r="3195" spans="1:2">
@@ -25935,7 +25935,7 @@
         <v>3199</v>
       </c>
       <c r="B3199">
-        <v>2.818487624489251</v>
+        <v>2.81848762448925</v>
       </c>
     </row>
     <row r="3200" spans="1:2">
@@ -26103,7 +26103,7 @@
         <v>3220</v>
       </c>
       <c r="B3220">
-        <v>21.0148932840427</v>
+        <v>21.01489328404269</v>
       </c>
     </row>
     <row r="3221" spans="1:2">
@@ -26127,7 +26127,7 @@
         <v>3223</v>
       </c>
       <c r="B3223">
-        <v>7.956146022058872</v>
+        <v>7.956146022058871</v>
       </c>
     </row>
     <row r="3224" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>2.474776841057612</v>
+        <v>2.474776841057611</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26751,7 +26751,7 @@
         <v>3301</v>
       </c>
       <c r="B3301">
-        <v>0.888591389221199</v>
+        <v>0.8885913892211988</v>
       </c>
     </row>
     <row r="3302" spans="1:2">
@@ -27031,7 +27031,7 @@
         <v>3336</v>
       </c>
       <c r="B3336">
-        <v>12.84770680704379</v>
+        <v>12.84770680704378</v>
       </c>
     </row>
     <row r="3337" spans="1:2">
@@ -27215,7 +27215,7 @@
         <v>3359</v>
       </c>
       <c r="B3359">
-        <v>10.87859180538208</v>
+        <v>10.87859180538207</v>
       </c>
     </row>
     <row r="3360" spans="1:2">
@@ -27287,7 +27287,7 @@
         <v>3368</v>
       </c>
       <c r="B3368">
-        <v>16.48545107442774</v>
+        <v>16.48545107442773</v>
       </c>
     </row>
     <row r="3369" spans="1:2">
@@ -27399,7 +27399,7 @@
         <v>3382</v>
       </c>
       <c r="B3382">
-        <v>2.06018389621534</v>
+        <v>2.060183896215339</v>
       </c>
     </row>
     <row r="3383" spans="1:2">
@@ -27407,7 +27407,7 @@
         <v>3383</v>
       </c>
       <c r="B3383">
-        <v>6.935819200959398</v>
+        <v>6.935819200959397</v>
       </c>
     </row>
     <row r="3384" spans="1:2">
@@ -27495,7 +27495,7 @@
         <v>3394</v>
       </c>
       <c r="B3394">
-        <v>0.3271171012226338</v>
+        <v>0.3271171012226337</v>
       </c>
     </row>
     <row r="3395" spans="1:2">
@@ -27623,7 +27623,7 @@
         <v>3410</v>
       </c>
       <c r="B3410">
-        <v>17.02672397573138</v>
+        <v>17.02672397573137</v>
       </c>
     </row>
     <row r="3411" spans="1:2">
@@ -27823,7 +27823,7 @@
         <v>3435</v>
       </c>
       <c r="B3435">
-        <v>5.881144454128815</v>
+        <v>5.881144454128814</v>
       </c>
     </row>
     <row r="3436" spans="1:2">
@@ -30895,7 +30895,7 @@
         <v>3819</v>
       </c>
       <c r="B3819">
-        <v>0.7348140845252045</v>
+        <v>0.7348140845252044</v>
       </c>
     </row>
     <row r="3820" spans="1:2">
@@ -30911,7 +30911,7 @@
         <v>3821</v>
       </c>
       <c r="B3821">
-        <v>7.02459041856992</v>
+        <v>7.024590418569919</v>
       </c>
     </row>
     <row r="3822" spans="1:2">
@@ -45687,7 +45687,7 @@
         <v>5668</v>
       </c>
       <c r="B5668">
-        <v>0.2889686302621638</v>
+        <v>0.2889686302621637</v>
       </c>
     </row>
     <row r="5669" spans="1:2">
@@ -46647,7 +46647,7 @@
         <v>5788</v>
       </c>
       <c r="B5788">
-        <v>0.4806130577215134</v>
+        <v>0.4806130577215133</v>
       </c>
     </row>
     <row r="5789" spans="1:2">
@@ -46655,7 +46655,7 @@
         <v>5789</v>
       </c>
       <c r="B5789">
-        <v>2.049492664724974</v>
+        <v>2.049492664724973</v>
       </c>
     </row>
     <row r="5790" spans="1:2">
@@ -47631,7 +47631,7 @@
         <v>5911</v>
       </c>
       <c r="B5911">
-        <v>5.147734179878798</v>
+        <v>5.147734179878797</v>
       </c>
     </row>
     <row r="5912" spans="1:2">
@@ -47783,7 +47783,7 @@
         <v>5930</v>
       </c>
       <c r="B5930">
-        <v>6.972072088441807</v>
+        <v>6.972072088441806</v>
       </c>
     </row>
     <row r="5931" spans="1:2">
@@ -47823,7 +47823,7 @@
         <v>5935</v>
       </c>
       <c r="B5935">
-        <v>5.244594158156373</v>
+        <v>5.244594158156372</v>
       </c>
     </row>
     <row r="5936" spans="1:2">
@@ -48183,7 +48183,7 @@
         <v>5980</v>
       </c>
       <c r="B5980">
-        <v>0.3263580472325009</v>
+        <v>0.3263580472325008</v>
       </c>
     </row>
     <row r="5981" spans="1:2">
@@ -48199,7 +48199,7 @@
         <v>5982</v>
       </c>
       <c r="B5982">
-        <v>1.989838054805457</v>
+        <v>1.989838054805456</v>
       </c>
     </row>
     <row r="5983" spans="1:2">
@@ -49151,7 +49151,7 @@
         <v>6101</v>
       </c>
       <c r="B6101">
-        <v>0.3656999034623999</v>
+        <v>0.3656999034623998</v>
       </c>
     </row>
     <row r="6102" spans="1:2">
@@ -49351,7 +49351,7 @@
         <v>6126</v>
       </c>
       <c r="B6126">
-        <v>2.280160087124159</v>
+        <v>2.280160087124158</v>
       </c>
     </row>
     <row r="6127" spans="1:2">
@@ -50119,7 +50119,7 @@
         <v>6222</v>
       </c>
       <c r="B6222">
-        <v>0.2934315160388988</v>
+        <v>0.2934315160388987</v>
       </c>
     </row>
     <row r="6223" spans="1:2">
@@ -50887,7 +50887,7 @@
         <v>6318</v>
       </c>
       <c r="B6318">
-        <v>6.71797949792242</v>
+        <v>6.717979497922419</v>
       </c>
     </row>
     <row r="6319" spans="1:2">
@@ -51103,7 +51103,7 @@
         <v>6345</v>
       </c>
       <c r="B6345">
-        <v>0.7889824046009809</v>
+        <v>0.7889824046009808</v>
       </c>
     </row>
     <row r="6346" spans="1:2">
@@ -51223,7 +51223,7 @@
         <v>6360</v>
       </c>
       <c r="B6360">
-        <v>0.2482976968719356</v>
+        <v>0.2482976968719355</v>
       </c>
     </row>
     <row r="6361" spans="1:2">
@@ -51439,7 +51439,7 @@
         <v>6387</v>
       </c>
       <c r="B6387">
-        <v>4.135584040757976</v>
+        <v>4.135584040757975</v>
       </c>
     </row>
     <row r="6388" spans="1:2">
@@ -51831,7 +51831,7 @@
         <v>6436</v>
       </c>
       <c r="B6436">
-        <v>8.723376694170408</v>
+        <v>8.723376694170407</v>
       </c>
     </row>
     <row r="6437" spans="1:2">
@@ -52063,7 +52063,7 @@
         <v>6465</v>
       </c>
       <c r="B6465">
-        <v>0.2315897169578523</v>
+        <v>0.2315897169578522</v>
       </c>
     </row>
     <row r="6466" spans="1:2">
@@ -52607,7 +52607,7 @@
         <v>6533</v>
       </c>
       <c r="B6533">
-        <v>0.1924509589577456</v>
+        <v>0.1924509589577455</v>
       </c>
     </row>
     <row r="6534" spans="1:2">
@@ -53175,7 +53175,7 @@
         <v>6604</v>
       </c>
       <c r="B6604">
-        <v>0.6656463886907404</v>
+        <v>0.6656463886907403</v>
       </c>
     </row>
     <row r="6605" spans="1:2">
@@ -53375,7 +53375,7 @@
         <v>6629</v>
       </c>
       <c r="B6629">
-        <v>0.566312890846864</v>
+        <v>0.5663128908468639</v>
       </c>
     </row>
     <row r="6630" spans="1:2">
@@ -53791,7 +53791,7 @@
         <v>6681</v>
       </c>
       <c r="B6681">
-        <v>0.079692756045909</v>
+        <v>0.07969275604590891</v>
       </c>
     </row>
     <row r="6682" spans="1:2">
@@ -54175,7 +54175,7 @@
         <v>6729</v>
       </c>
       <c r="B6729">
-        <v>8.56884033548428</v>
+        <v>8.568840335484278</v>
       </c>
     </row>
     <row r="6730" spans="1:2">
@@ -54223,7 +54223,7 @@
         <v>6735</v>
       </c>
       <c r="B6735">
-        <v>0.3847407288442275</v>
+        <v>0.3847407288442274</v>
       </c>
     </row>
     <row r="6736" spans="1:2">
@@ -54319,7 +54319,7 @@
         <v>6747</v>
       </c>
       <c r="B6747">
-        <v>49.39008986144188</v>
+        <v>49.39008986144187</v>
       </c>
     </row>
     <row r="6748" spans="1:2">
@@ -54343,7 +54343,7 @@
         <v>6750</v>
       </c>
       <c r="B6750">
-        <v>74.18507201634634</v>
+        <v>74.18507201634633</v>
       </c>
     </row>
     <row r="6751" spans="1:2">
@@ -54383,7 +54383,7 @@
         <v>6755</v>
       </c>
       <c r="B6755">
-        <v>4.087285933586586</v>
+        <v>4.087285933586585</v>
       </c>
     </row>
     <row r="6756" spans="1:2">
@@ -54455,7 +54455,7 @@
         <v>6764</v>
       </c>
       <c r="B6764">
-        <v>0.891510376766266</v>
+        <v>0.8915103767662659</v>
       </c>
     </row>
     <row r="6765" spans="1:2">
@@ -54463,7 +54463,7 @@
         <v>6765</v>
       </c>
       <c r="B6765">
-        <v>2.036072941864671</v>
+        <v>2.03607294186467</v>
       </c>
     </row>
     <row r="6766" spans="1:2">
@@ -54535,7 +54535,7 @@
         <v>6774</v>
       </c>
       <c r="B6774">
-        <v>48.07332168473646</v>
+        <v>48.07332168473645</v>
       </c>
     </row>
     <row r="6775" spans="1:2">
@@ -54543,7 +54543,7 @@
         <v>6775</v>
       </c>
       <c r="B6775">
-        <v>38.85066916910258</v>
+        <v>38.85066916910257</v>
       </c>
     </row>
     <row r="6776" spans="1:2">
@@ -54703,7 +54703,7 @@
         <v>6795</v>
       </c>
       <c r="B6795">
-        <v>7.022802685234085</v>
+        <v>7.022802685234084</v>
       </c>
     </row>
     <row r="6796" spans="1:2">
@@ -54727,7 +54727,7 @@
         <v>6798</v>
       </c>
       <c r="B6798">
-        <v>16.88795483892523</v>
+        <v>16.88795483892522</v>
       </c>
     </row>
     <row r="6799" spans="1:2">
@@ -54735,7 +54735,7 @@
         <v>6799</v>
       </c>
       <c r="B6799">
-        <v>12.8343720747847</v>
+        <v>12.83437207478469</v>
       </c>
     </row>
     <row r="6800" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>5.438724414165648</v>
+        <v>5.438724414165647</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -54927,7 +54927,7 @@
         <v>6823</v>
       </c>
       <c r="B6823">
-        <v>8.288576501212436</v>
+        <v>8.288576501212434</v>
       </c>
     </row>
     <row r="6824" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>0.7884783224144835</v>
+        <v>0.7884783224144833</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -55983,7 +55983,7 @@
         <v>6955</v>
       </c>
       <c r="B6955">
-        <v>0.7558067630245167</v>
+        <v>0.7558067630245165</v>
       </c>
     </row>
     <row r="6956" spans="1:2">
@@ -56255,7 +56255,7 @@
         <v>6989</v>
       </c>
       <c r="B6989">
-        <v>44.87064137424528</v>
+        <v>44.87064137424527</v>
       </c>
     </row>
     <row r="6990" spans="1:2">
@@ -56279,7 +56279,7 @@
         <v>6992</v>
       </c>
       <c r="B6992">
-        <v>20.29871558686597</v>
+        <v>20.29871558686596</v>
       </c>
     </row>
     <row r="6993" spans="1:2">
@@ -56295,7 +56295,7 @@
         <v>6994</v>
       </c>
       <c r="B6994">
-        <v>4.371916526334485</v>
+        <v>4.371916526334484</v>
       </c>
     </row>
     <row r="6995" spans="1:2">
@@ -56431,7 +56431,7 @@
         <v>7011</v>
       </c>
       <c r="B7011">
-        <v>18.8431782733544</v>
+        <v>18.84317827335439</v>
       </c>
     </row>
     <row r="7012" spans="1:2">
@@ -56607,7 +56607,7 @@
         <v>7033</v>
       </c>
       <c r="B7033">
-        <v>3.442646876947091</v>
+        <v>3.44264687694709</v>
       </c>
     </row>
     <row r="7034" spans="1:2">
@@ -56615,7 +56615,7 @@
         <v>7034</v>
       </c>
       <c r="B7034">
-        <v>5.471665598911183</v>
+        <v>5.471665598911182</v>
       </c>
     </row>
     <row r="7035" spans="1:2">
@@ -56839,7 +56839,7 @@
         <v>7062</v>
       </c>
       <c r="B7062">
-        <v>8.811415234184276</v>
+        <v>8.811415234184274</v>
       </c>
     </row>
     <row r="7063" spans="1:2">
@@ -57039,7 +57039,7 @@
         <v>7087</v>
       </c>
       <c r="B7087">
-        <v>15.70673201760068</v>
+        <v>15.70673201760067</v>
       </c>
     </row>
     <row r="7088" spans="1:2">
@@ -57623,7 +57623,7 @@
         <v>7160</v>
       </c>
       <c r="B7160">
-        <v>5.993507890351575</v>
+        <v>5.993507890351574</v>
       </c>
     </row>
     <row r="7161" spans="1:2">
@@ -57943,7 +57943,7 @@
         <v>7200</v>
       </c>
       <c r="B7200">
-        <v>29.37656170229727</v>
+        <v>29.37656170229726</v>
       </c>
     </row>
     <row r="7201" spans="1:2">
@@ -57951,7 +57951,7 @@
         <v>7201</v>
       </c>
       <c r="B7201">
-        <v>29.98409796544224</v>
+        <v>29.98409796544223</v>
       </c>
     </row>
     <row r="7202" spans="1:2">
@@ -57959,7 +57959,7 @@
         <v>7202</v>
       </c>
       <c r="B7202">
-        <v>38.38175550724443</v>
+        <v>38.38175550724442</v>
       </c>
     </row>
     <row r="7203" spans="1:2">
@@ -58047,7 +58047,7 @@
         <v>7213</v>
       </c>
       <c r="B7213">
-        <v>3.802919104773483</v>
+        <v>3.802919104773482</v>
       </c>
     </row>
     <row r="7214" spans="1:2">
@@ -58119,7 +58119,7 @@
         <v>7222</v>
       </c>
       <c r="B7222">
-        <v>26.30248096357069</v>
+        <v>26.30248096357068</v>
       </c>
     </row>
     <row r="7223" spans="1:2">
@@ -58151,7 +58151,7 @@
         <v>7226</v>
       </c>
       <c r="B7226">
-        <v>50.55475416908207</v>
+        <v>50.55475416908206</v>
       </c>
     </row>
     <row r="7227" spans="1:2">
@@ -58223,7 +58223,7 @@
         <v>7235</v>
       </c>
       <c r="B7235">
-        <v>7.743464369302333</v>
+        <v>7.743464369302332</v>
       </c>
     </row>
     <row r="7236" spans="1:2">
@@ -58255,7 +58255,7 @@
         <v>7239</v>
       </c>
       <c r="B7239">
-        <v>0.9838834374419354</v>
+        <v>0.9838834374419352</v>
       </c>
     </row>
     <row r="7240" spans="1:2">
@@ -58343,7 +58343,7 @@
         <v>7250</v>
       </c>
       <c r="B7250">
-        <v>28.22833867992599</v>
+        <v>28.22833867992598</v>
       </c>
     </row>
     <row r="7251" spans="1:2">
@@ -58575,7 +58575,7 @@
         <v>7279</v>
       </c>
       <c r="B7279">
-        <v>35.93842225792479</v>
+        <v>35.93842225792478</v>
       </c>
     </row>
     <row r="7280" spans="1:2">
@@ -58831,7 +58831,7 @@
         <v>7311</v>
       </c>
       <c r="B7311">
-        <v>0.7499394808305165</v>
+        <v>0.7499394808305164</v>
       </c>
     </row>
     <row r="7312" spans="1:2">
@@ -58871,7 +58871,7 @@
         <v>7316</v>
       </c>
       <c r="B7316">
-        <v>0.8320052330764665</v>
+        <v>0.8320052330764663</v>
       </c>
     </row>
     <row r="7317" spans="1:2">
@@ -58879,7 +58879,7 @@
         <v>7317</v>
       </c>
       <c r="B7317">
-        <v>2.887397417809693</v>
+        <v>2.887397417809692</v>
       </c>
     </row>
     <row r="7318" spans="1:2">
@@ -58911,7 +58911,7 @@
         <v>7321</v>
       </c>
       <c r="B7321">
-        <v>26.86429814468449</v>
+        <v>26.86429814468448</v>
       </c>
     </row>
     <row r="7322" spans="1:2">
@@ -58951,7 +58951,7 @@
         <v>7326</v>
       </c>
       <c r="B7326">
-        <v>60.16455352678758</v>
+        <v>60.16455352678757</v>
       </c>
     </row>
     <row r="7327" spans="1:2">
@@ -58959,7 +58959,7 @@
         <v>7327</v>
       </c>
       <c r="B7327">
-        <v>54.67122997811932</v>
+        <v>54.67122997811931</v>
       </c>
     </row>
     <row r="7328" spans="1:2">
@@ -59135,7 +59135,7 @@
         <v>7349</v>
       </c>
       <c r="B7349">
-        <v>45.50748474125638</v>
+        <v>45.50748474125637</v>
       </c>
     </row>
     <row r="7350" spans="1:2">
@@ -59143,7 +59143,7 @@
         <v>7350</v>
       </c>
       <c r="B7350">
-        <v>54.91887500578816</v>
+        <v>54.91887500578815</v>
       </c>
     </row>
     <row r="7351" spans="1:2">
@@ -59327,7 +59327,7 @@
         <v>7373</v>
       </c>
       <c r="B7373">
-        <v>17.44810151511866</v>
+        <v>17.44810151511865</v>
       </c>
     </row>
     <row r="7374" spans="1:2">
@@ -59415,7 +59415,7 @@
         <v>7384</v>
       </c>
       <c r="B7384">
-        <v>0.2613929900924405</v>
+        <v>0.2613929900924404</v>
       </c>
     </row>
     <row r="7385" spans="1:2">
@@ -59783,7 +59783,7 @@
         <v>7430</v>
       </c>
       <c r="B7430">
-        <v>3.752100586669606</v>
+        <v>3.752100586669605</v>
       </c>
     </row>
     <row r="7431" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>6.776505784343091</v>
+        <v>6.77650578434309</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -59887,7 +59887,7 @@
         <v>7443</v>
       </c>
       <c r="B7443">
-        <v>53.77208803150632</v>
+        <v>53.77208803150631</v>
       </c>
     </row>
     <row r="7444" spans="1:2">
@@ -59951,7 +59951,7 @@
         <v>7451</v>
       </c>
       <c r="B7451">
-        <v>7.363761531612695</v>
+        <v>7.363761531612694</v>
       </c>
     </row>
     <row r="7452" spans="1:2">
@@ -60031,7 +60031,7 @@
         <v>7461</v>
       </c>
       <c r="B7461">
-        <v>3.945761929017023</v>
+        <v>3.945761929017022</v>
       </c>
     </row>
     <row r="7462" spans="1:2">
@@ -60039,7 +60039,7 @@
         <v>7462</v>
       </c>
       <c r="B7462">
-        <v>6.462685316144522</v>
+        <v>6.462685316144521</v>
       </c>
     </row>
     <row r="7463" spans="1:2">
@@ -60103,7 +60103,7 @@
         <v>7470</v>
       </c>
       <c r="B7470">
-        <v>40.22898226392689</v>
+        <v>40.22898226392688</v>
       </c>
     </row>
     <row r="7471" spans="1:2">
@@ -60111,7 +60111,7 @@
         <v>7471</v>
       </c>
       <c r="B7471">
-        <v>47.0411254865712</v>
+        <v>47.04112548657119</v>
       </c>
     </row>
     <row r="7472" spans="1:2">
@@ -60127,7 +60127,7 @@
         <v>7473</v>
       </c>
       <c r="B7473">
-        <v>39.3471315085949</v>
+        <v>39.34713150859489</v>
       </c>
     </row>
     <row r="7474" spans="1:2">
@@ -60343,7 +60343,7 @@
         <v>7500</v>
       </c>
       <c r="B7500">
-        <v>5.218159150469119</v>
+        <v>5.218159150469118</v>
       </c>
     </row>
     <row r="7501" spans="1:2">
@@ -60463,7 +60463,7 @@
         <v>7515</v>
       </c>
       <c r="B7515">
-        <v>0.5239670564706862</v>
+        <v>0.5239670564706861</v>
       </c>
     </row>
     <row r="7516" spans="1:2">
@@ -60527,7 +60527,7 @@
         <v>7523</v>
       </c>
       <c r="B7523">
-        <v>0.5456279369381463</v>
+        <v>0.5456279369381462</v>
       </c>
     </row>
     <row r="7524" spans="1:2">
@@ -60671,7 +60671,7 @@
         <v>7541</v>
       </c>
       <c r="B7541">
-        <v>26.32991241278939</v>
+        <v>26.32991241278938</v>
       </c>
     </row>
     <row r="7542" spans="1:2">
@@ -60743,7 +60743,7 @@
         <v>7550</v>
       </c>
       <c r="B7550">
-        <v>0.8702773800152516</v>
+        <v>0.8702773800152515</v>
       </c>
     </row>
     <row r="7551" spans="1:2">
@@ -60871,7 +60871,7 @@
         <v>7566</v>
       </c>
       <c r="B7566">
-        <v>43.9788262035988</v>
+        <v>43.97882620359879</v>
       </c>
     </row>
     <row r="7567" spans="1:2">
@@ -60927,7 +60927,7 @@
         <v>7573</v>
       </c>
       <c r="B7573">
-        <v>1.648750257169837</v>
+        <v>1.648750257169836</v>
       </c>
     </row>
     <row r="7574" spans="1:2">
@@ -60959,7 +60959,7 @@
         <v>7577</v>
       </c>
       <c r="B7577">
-        <v>12.91640265850601</v>
+        <v>12.916402658506</v>
       </c>
     </row>
     <row r="7578" spans="1:2">
@@ -61031,7 +61031,7 @@
         <v>7586</v>
       </c>
       <c r="B7586">
-        <v>40.21110493056855</v>
+        <v>40.21110493056854</v>
       </c>
     </row>
     <row r="7587" spans="1:2">
@@ -61055,7 +61055,7 @@
         <v>7589</v>
       </c>
       <c r="B7589">
-        <v>50.15207456196138</v>
+        <v>50.15207456196137</v>
       </c>
     </row>
     <row r="7590" spans="1:2">
@@ -61063,7 +61063,7 @@
         <v>7590</v>
       </c>
       <c r="B7590">
-        <v>59.65460991951684</v>
+        <v>59.65460991951683</v>
       </c>
     </row>
     <row r="7591" spans="1:2">
@@ -61079,7 +61079,7 @@
         <v>7592</v>
       </c>
       <c r="B7592">
-        <v>41.52318397065539</v>
+        <v>41.52318397065538</v>
       </c>
     </row>
     <row r="7593" spans="1:2">
@@ -61151,7 +61151,7 @@
         <v>7601</v>
       </c>
       <c r="B7601">
-        <v>20.27875744913313</v>
+        <v>20.27875744913312</v>
       </c>
     </row>
     <row r="7602" spans="1:2">
@@ -61199,7 +61199,7 @@
         <v>7607</v>
       </c>
       <c r="B7607">
-        <v>8.240131858521716</v>
+        <v>8.240131858521714</v>
       </c>
     </row>
     <row r="7608" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>56.28194840660208</v>
+        <v>56.28194840660207</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61439,7 +61439,7 @@
         <v>7637</v>
       </c>
       <c r="B7637">
-        <v>57.99641398277095</v>
+        <v>57.99641398277094</v>
       </c>
     </row>
     <row r="7638" spans="1:2">
@@ -61495,7 +61495,7 @@
         <v>7644</v>
       </c>
       <c r="B7644">
-        <v>17.95397143495201</v>
+        <v>17.953971434952</v>
       </c>
     </row>
     <row r="7645" spans="1:2">
@@ -61623,7 +61623,7 @@
         <v>7660</v>
       </c>
       <c r="B7660">
-        <v>71.68605526968105</v>
+        <v>71.68605526968103</v>
       </c>
     </row>
     <row r="7661" spans="1:2">
@@ -61711,7 +61711,7 @@
         <v>7671</v>
       </c>
       <c r="B7671">
-        <v>14.06383438907291</v>
+        <v>14.0638343890729</v>
       </c>
     </row>
     <row r="7672" spans="1:2">
@@ -61743,7 +61743,7 @@
         <v>7675</v>
       </c>
       <c r="B7675">
-        <v>24.23389765138732</v>
+        <v>24.23389765138731</v>
       </c>
     </row>
     <row r="7676" spans="1:2">
@@ -61823,7 +61823,7 @@
         <v>7685</v>
       </c>
       <c r="B7685">
-        <v>41.37518309613141</v>
+        <v>41.3751830961314</v>
       </c>
     </row>
     <row r="7686" spans="1:2">
@@ -61871,7 +61871,7 @@
         <v>7691</v>
       </c>
       <c r="B7691">
-        <v>6.112846417294475</v>
+        <v>6.112846417294474</v>
       </c>
     </row>
     <row r="7692" spans="1:2">
@@ -61967,7 +61967,7 @@
         <v>7703</v>
       </c>
       <c r="B7703">
-        <v>29.19295269657594</v>
+        <v>29.19295269657593</v>
       </c>
     </row>
     <row r="7704" spans="1:2">
@@ -62007,7 +62007,7 @@
         <v>7708</v>
       </c>
       <c r="B7708">
-        <v>62.88747654699014</v>
+        <v>62.88747654699013</v>
       </c>
     </row>
     <row r="7709" spans="1:2">
@@ -62015,7 +62015,7 @@
         <v>7709</v>
       </c>
       <c r="B7709">
-        <v>65.32699987280718</v>
+        <v>65.32699987280716</v>
       </c>
     </row>
     <row r="7710" spans="1:2">
@@ -62039,7 +62039,7 @@
         <v>7712</v>
       </c>
       <c r="B7712">
-        <v>62.72189141014648</v>
+        <v>62.72189141014647</v>
       </c>
     </row>
     <row r="7713" spans="1:2">
@@ -62055,7 +62055,7 @@
         <v>7714</v>
       </c>
       <c r="B7714">
-        <v>21.7636311736147</v>
+        <v>21.76363117361469</v>
       </c>
     </row>
     <row r="7715" spans="1:2">
@@ -62215,7 +62215,7 @@
         <v>7734</v>
       </c>
       <c r="B7734">
-        <v>72.97556783979097</v>
+        <v>72.97556783979095</v>
       </c>
     </row>
     <row r="7735" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>83.62401095851229</v>
+        <v>83.62401095851227</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62463,7 +62463,7 @@
         <v>7765</v>
       </c>
       <c r="B7765">
-        <v>22.45457545436269</v>
+        <v>22.45457545436268</v>
       </c>
     </row>
     <row r="7766" spans="1:2">
@@ -62487,7 +62487,7 @@
         <v>7768</v>
       </c>
       <c r="B7768">
-        <v>63.11460660195268</v>
+        <v>63.11460660195267</v>
       </c>
     </row>
     <row r="7769" spans="1:2">
@@ -62599,7 +62599,7 @@
         <v>7782</v>
       </c>
       <c r="B7782">
-        <v>90.41681149260496</v>
+        <v>90.41681149260494</v>
       </c>
     </row>
     <row r="7783" spans="1:2">
@@ -62623,7 +62623,7 @@
         <v>7785</v>
       </c>
       <c r="B7785">
-        <v>76.44289129819335</v>
+        <v>76.44289129819333</v>
       </c>
     </row>
     <row r="7786" spans="1:2">
@@ -62687,7 +62687,7 @@
         <v>7793</v>
       </c>
       <c r="B7793">
-        <v>71.20453955316046</v>
+        <v>71.20453955316044</v>
       </c>
     </row>
     <row r="7794" spans="1:2">
@@ -62743,7 +62743,7 @@
         <v>7800</v>
       </c>
       <c r="B7800">
-        <v>74.86587603915665</v>
+        <v>74.86587603915663</v>
       </c>
     </row>
     <row r="7801" spans="1:2">
@@ -62759,7 +62759,7 @@
         <v>7802</v>
       </c>
       <c r="B7802">
-        <v>86.2024499566548</v>
+        <v>86.20244995665479</v>
       </c>
     </row>
     <row r="7803" spans="1:2">
@@ -62767,7 +62767,7 @@
         <v>7803</v>
       </c>
       <c r="B7803">
-        <v>88.89342823364328</v>
+        <v>88.89342823364326</v>
       </c>
     </row>
     <row r="7804" spans="1:2">
@@ -62815,7 +62815,7 @@
         <v>7809</v>
       </c>
       <c r="B7809">
-        <v>63.73591720391473</v>
+        <v>63.73591720391472</v>
       </c>
     </row>
     <row r="7810" spans="1:2">
@@ -62839,7 +62839,7 @@
         <v>7812</v>
       </c>
       <c r="B7812">
-        <v>45.47466078492631</v>
+        <v>45.4746607849263</v>
       </c>
     </row>
     <row r="7813" spans="1:2">
@@ -62959,7 +62959,7 @@
         <v>7827</v>
       </c>
       <c r="B7827">
-        <v>84.14128134174956</v>
+        <v>84.14128134174955</v>
       </c>
     </row>
     <row r="7828" spans="1:2">
@@ -62967,7 +62967,7 @@
         <v>7828</v>
       </c>
       <c r="B7828">
-        <v>90.2837572410527</v>
+        <v>90.28375724105268</v>
       </c>
     </row>
     <row r="7829" spans="1:2">
@@ -62983,7 +62983,7 @@
         <v>7830</v>
       </c>
       <c r="B7830">
-        <v>103.3072480570856</v>
+        <v>103.3072480570855</v>
       </c>
     </row>
     <row r="7831" spans="1:2">
@@ -63079,7 +63079,7 @@
         <v>7842</v>
       </c>
       <c r="B7842">
-        <v>68.35647519944951</v>
+        <v>68.35647519944949</v>
       </c>
     </row>
     <row r="7843" spans="1:2">
@@ -63143,7 +63143,7 @@
         <v>7850</v>
       </c>
       <c r="B7850">
-        <v>93.29799287368463</v>
+        <v>93.29799287368462</v>
       </c>
     </row>
     <row r="7851" spans="1:2">
@@ -63151,7 +63151,7 @@
         <v>7851</v>
       </c>
       <c r="B7851">
-        <v>97.91181023533019</v>
+        <v>97.91181023533018</v>
       </c>
     </row>
     <row r="7852" spans="1:2">
@@ -63207,7 +63207,7 @@
         <v>7858</v>
       </c>
       <c r="B7858">
-        <v>47.47457755275133</v>
+        <v>47.47457755275132</v>
       </c>
     </row>
     <row r="7859" spans="1:2">
@@ -63327,7 +63327,7 @@
         <v>7873</v>
       </c>
       <c r="B7873">
-        <v>72.81203420021794</v>
+        <v>72.81203420021792</v>
       </c>
     </row>
     <row r="7874" spans="1:2">
@@ -63351,7 +63351,7 @@
         <v>7876</v>
       </c>
       <c r="B7876">
-        <v>79.10954467897292</v>
+        <v>79.10954467897291</v>
       </c>
     </row>
     <row r="7877" spans="1:2">
@@ -63367,7 +63367,7 @@
         <v>7878</v>
       </c>
       <c r="B7878">
-        <v>77.94839722379668</v>
+        <v>77.94839722379666</v>
       </c>
     </row>
     <row r="7879" spans="1:2">
@@ -63375,7 +63375,7 @@
         <v>7879</v>
       </c>
       <c r="B7879">
-        <v>71.30652827461461</v>
+        <v>71.30652827461459</v>
       </c>
     </row>
     <row r="7880" spans="1:2">
@@ -63391,7 +63391,7 @@
         <v>7881</v>
       </c>
       <c r="B7881">
-        <v>69.40361802058649</v>
+        <v>69.40361802058648</v>
       </c>
     </row>
     <row r="7882" spans="1:2">
@@ -63471,7 +63471,7 @@
         <v>7891</v>
       </c>
       <c r="B7891">
-        <v>64.43020249450346</v>
+        <v>64.43020249450345</v>
       </c>
     </row>
     <row r="7892" spans="1:2">
@@ -63479,7 +63479,7 @@
         <v>7892</v>
       </c>
       <c r="B7892">
-        <v>52.57459976753606</v>
+        <v>52.57459976753605</v>
       </c>
     </row>
     <row r="7893" spans="1:2">
@@ -63511,7 +63511,7 @@
         <v>7896</v>
       </c>
       <c r="B7896">
-        <v>42.2312436000612</v>
+        <v>42.23124360006119</v>
       </c>
     </row>
     <row r="7897" spans="1:2">
@@ -63519,7 +63519,7 @@
         <v>7897</v>
       </c>
       <c r="B7897">
-        <v>37.70681290520735</v>
+        <v>37.70681290520734</v>
       </c>
     </row>
     <row r="7898" spans="1:2">
@@ -63543,7 +63543,7 @@
         <v>7900</v>
       </c>
       <c r="B7900">
-        <v>37.54122776836369</v>
+        <v>37.54122776836368</v>
       </c>
     </row>
     <row r="7901" spans="1:2">
@@ -63759,7 +63759,7 @@
         <v>7927</v>
       </c>
       <c r="B7927">
-        <v>47.51795206647321</v>
+        <v>47.5179520664732</v>
       </c>
     </row>
     <row r="7928" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>14.25740781010873</v>
+        <v>14.25740781010872</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -63911,7 +63911,7 @@
         <v>7946</v>
       </c>
       <c r="B7946">
-        <v>48.77112382778912</v>
+        <v>48.77112382778911</v>
       </c>
     </row>
     <row r="7947" spans="1:2">
@@ -63935,7 +63935,7 @@
         <v>7949</v>
       </c>
       <c r="B7949">
-        <v>54.3734698028394</v>
+        <v>54.37346980283939</v>
       </c>
     </row>
     <row r="7950" spans="1:2">
@@ -63975,7 +63975,7 @@
         <v>7954</v>
       </c>
       <c r="B7954">
-        <v>18.48665735482287</v>
+        <v>18.48665735482286</v>
       </c>
     </row>
     <row r="7955" spans="1:2">
@@ -64015,7 +64015,7 @@
         <v>7959</v>
       </c>
       <c r="B7959">
-        <v>6.87348299103613</v>
+        <v>6.873482991036129</v>
       </c>
     </row>
     <row r="7960" spans="1:2">
@@ -64111,7 +64111,7 @@
         <v>7971</v>
       </c>
       <c r="B7971">
-        <v>56.53662713919879</v>
+        <v>56.53662713919878</v>
       </c>
     </row>
     <row r="7972" spans="1:2">
@@ -64143,7 +64143,7 @@
         <v>7975</v>
       </c>
       <c r="B7975">
-        <v>90.74798176629228</v>
+        <v>90.74798176629226</v>
       </c>
     </row>
     <row r="7976" spans="1:2">
@@ -64151,7 +64151,7 @@
         <v>7976</v>
       </c>
       <c r="B7976">
-        <v>87.06407881031916</v>
+        <v>87.06407881031915</v>
       </c>
     </row>
     <row r="7977" spans="1:2">
@@ -64207,7 +64207,7 @@
         <v>7983</v>
       </c>
       <c r="B7983">
-        <v>24.51803002336949</v>
+        <v>24.51803002336948</v>
       </c>
     </row>
     <row r="7984" spans="1:2">
@@ -64223,7 +64223,7 @@
         <v>7985</v>
       </c>
       <c r="B7985">
-        <v>36.08876770075806</v>
+        <v>36.08876770075805</v>
       </c>
     </row>
     <row r="7986" spans="1:2">
@@ -64327,7 +64327,7 @@
         <v>7998</v>
       </c>
       <c r="B7998">
-        <v>64.09903222081614</v>
+        <v>64.09903222081613</v>
       </c>
     </row>
     <row r="7999" spans="1:2">
@@ -64463,7 +64463,7 @@
         <v>8015</v>
       </c>
       <c r="B8015">
-        <v>29.20590643648477</v>
+        <v>29.20590643648476</v>
       </c>
     </row>
     <row r="8016" spans="1:2">
@@ -64511,7 +64511,7 @@
         <v>8021</v>
       </c>
       <c r="B8021">
-        <v>24.9103056086177</v>
+        <v>24.91030560861769</v>
       </c>
     </row>
     <row r="8022" spans="1:2">
@@ -64711,7 +64711,7 @@
         <v>8046</v>
       </c>
       <c r="B8046">
-        <v>55.17355373838487</v>
+        <v>55.17355373838486</v>
       </c>
     </row>
     <row r="8047" spans="1:2">
@@ -64751,7 +64751,7 @@
         <v>8051</v>
       </c>
       <c r="B8051">
-        <v>4.721257204418809</v>
+        <v>4.721257204418808</v>
       </c>
     </row>
     <row r="8052" spans="1:2">
@@ -64879,7 +64879,7 @@
         <v>8067</v>
       </c>
       <c r="B8067">
-        <v>33.02910605713362</v>
+        <v>33.02910605713361</v>
       </c>
     </row>
     <row r="8068" spans="1:2">
@@ -65063,7 +65063,7 @@
         <v>8090</v>
       </c>
       <c r="B8090">
-        <v>6.174127571478562</v>
+        <v>6.174127571478561</v>
       </c>
     </row>
     <row r="8091" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>9.519123178343692</v>
+        <v>9.51912317834369</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65663,7 +65663,7 @@
         <v>8165</v>
       </c>
       <c r="B8165">
-        <v>0.1034077714233464</v>
+        <v>0.1034077714233463</v>
       </c>
     </row>
     <row r="8166" spans="1:2">
@@ -65687,7 +65687,7 @@
         <v>8168</v>
       </c>
       <c r="B8168">
-        <v>0.144204725360199</v>
+        <v>0.1442047253601989</v>
       </c>
     </row>
     <row r="8169" spans="1:2">
@@ -65831,7 +65831,7 @@
         <v>8186</v>
       </c>
       <c r="B8186">
-        <v>0.8792600073502217</v>
+        <v>0.8792600073502216</v>
       </c>
     </row>
     <row r="8187" spans="1:2">
@@ -65839,7 +65839,7 @@
         <v>8187</v>
       </c>
       <c r="B8187">
-        <v>4.039427432973189</v>
+        <v>4.039427432973188</v>
       </c>
     </row>
     <row r="8188" spans="1:2">
@@ -65943,7 +65943,7 @@
         <v>8200</v>
       </c>
       <c r="B8200">
-        <v>18.17567967569932</v>
+        <v>18.17567967569931</v>
       </c>
     </row>
     <row r="8201" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>6.350468415441093</v>
+        <v>6.350468415441092</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -66063,7 +66063,7 @@
         <v>8215</v>
       </c>
       <c r="B8215">
-        <v>36.28248765731321</v>
+        <v>36.2824876573132</v>
       </c>
     </row>
     <row r="8216" spans="1:2">
@@ -66127,7 +66127,7 @@
         <v>8223</v>
       </c>
       <c r="B8223">
-        <v>9.70619042232123</v>
+        <v>9.706190422321228</v>
       </c>
     </row>
     <row r="8224" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>54.18502512498015</v>
+        <v>54.18502512498014</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66375,7 +66375,7 @@
         <v>8254</v>
       </c>
       <c r="B8254">
-        <v>14.34474297962981</v>
+        <v>14.3447429796298</v>
       </c>
     </row>
     <row r="8255" spans="1:2">
@@ -66399,7 +66399,7 @@
         <v>8257</v>
       </c>
       <c r="B8257">
-        <v>31.01189809802758</v>
+        <v>31.01189809802757</v>
       </c>
     </row>
     <row r="8258" spans="1:2">
@@ -66567,7 +66567,7 @@
         <v>8278</v>
       </c>
       <c r="B8278">
-        <v>30.052676588489</v>
+        <v>30.05267658848899</v>
       </c>
     </row>
     <row r="8279" spans="1:2">
@@ -66575,7 +66575,7 @@
         <v>8279</v>
       </c>
       <c r="B8279">
-        <v>35.68872573298533</v>
+        <v>35.68872573298532</v>
       </c>
     </row>
     <row r="8280" spans="1:2">
@@ -66591,7 +66591,7 @@
         <v>8281</v>
       </c>
       <c r="B8281">
-        <v>55.37225590259726</v>
+        <v>55.37225590259725</v>
       </c>
     </row>
     <row r="8282" spans="1:2">
@@ -66615,7 +66615,7 @@
         <v>8284</v>
       </c>
       <c r="B8284">
-        <v>66.07872708697353</v>
+        <v>66.07872708697352</v>
       </c>
     </row>
     <row r="8285" spans="1:2">
@@ -66623,7 +66623,7 @@
         <v>8285</v>
       </c>
       <c r="B8285">
-        <v>67.21730807217286</v>
+        <v>67.21730807217284</v>
       </c>
     </row>
     <row r="8286" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>86.16405765059017</v>
+        <v>86.16405765059015</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66655,7 +66655,7 @@
         <v>8289</v>
       </c>
       <c r="B8289">
-        <v>48.68173716099741</v>
+        <v>48.6817371609974</v>
       </c>
     </row>
     <row r="8290" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>27.4326801170643</v>
+        <v>27.43268011706429</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -66799,7 +66799,7 @@
         <v>8307</v>
       </c>
       <c r="B8307">
-        <v>51.79004859703964</v>
+        <v>51.79004859703963</v>
       </c>
     </row>
     <row r="8308" spans="1:2">
@@ -66815,7 +66815,7 @@
         <v>8309</v>
       </c>
       <c r="B8309">
-        <v>53.36706385607634</v>
+        <v>53.36706385607633</v>
       </c>
     </row>
     <row r="8310" spans="1:2">
@@ -66847,7 +66847,7 @@
         <v>8313</v>
       </c>
       <c r="B8313">
-        <v>60.00600209487179</v>
+        <v>60.00600209487178</v>
       </c>
     </row>
     <row r="8314" spans="1:2">
@@ -66959,7 +66959,7 @@
         <v>8327</v>
       </c>
       <c r="B8327">
-        <v>29.5128397352748</v>
+        <v>29.51283973527479</v>
       </c>
     </row>
     <row r="8328" spans="1:2">
@@ -66991,7 +66991,7 @@
         <v>8331</v>
       </c>
       <c r="B8331">
-        <v>57.47914359953367</v>
+        <v>57.47914359953366</v>
       </c>
     </row>
     <row r="8332" spans="1:2">
@@ -67095,7 +67095,7 @@
         <v>8344</v>
       </c>
       <c r="B8344">
-        <v>25.77931985245632</v>
+        <v>25.77931985245631</v>
       </c>
     </row>
     <row r="8345" spans="1:2">
@@ -67119,7 +67119,7 @@
         <v>8347</v>
       </c>
       <c r="B8347">
-        <v>46.69471551887349</v>
+        <v>46.69471551887348</v>
       </c>
     </row>
     <row r="8348" spans="1:2">
@@ -67159,7 +67159,7 @@
         <v>8352</v>
       </c>
       <c r="B8352">
-        <v>57.83581105358453</v>
+        <v>57.83581105358452</v>
       </c>
     </row>
     <row r="8353" spans="1:2">
@@ -67183,7 +67183,7 @@
         <v>8355</v>
       </c>
       <c r="B8355">
-        <v>80.18980452747864</v>
+        <v>80.18980452747863</v>
       </c>
     </row>
     <row r="8356" spans="1:2">
@@ -67191,7 +67191,7 @@
         <v>8356</v>
       </c>
       <c r="B8356">
-        <v>83.29606446625024</v>
+        <v>83.29606446625023</v>
       </c>
     </row>
     <row r="8357" spans="1:2">
@@ -67511,7 +67511,7 @@
         <v>8396</v>
       </c>
       <c r="B8396">
-        <v>37.79561342992174</v>
+        <v>37.79561342992173</v>
       </c>
     </row>
     <row r="8397" spans="1:2">
@@ -67775,7 +67775,7 @@
         <v>8429</v>
       </c>
       <c r="B8429">
-        <v>64.65733254946601</v>
+        <v>64.65733254946599</v>
       </c>
     </row>
     <row r="8430" spans="1:2">
@@ -67839,7 +67839,7 @@
         <v>8437</v>
       </c>
       <c r="B8437">
-        <v>23.66765509758973</v>
+        <v>23.66765509758972</v>
       </c>
     </row>
     <row r="8438" spans="1:2">
@@ -67879,7 +67879,7 @@
         <v>8442</v>
       </c>
       <c r="B8442">
-        <v>43.00319271589518</v>
+        <v>43.00319271589517</v>
       </c>
     </row>
     <row r="8443" spans="1:2">
@@ -67887,7 +67887,7 @@
         <v>8443</v>
       </c>
       <c r="B8443">
-        <v>47.00830153024113</v>
+        <v>47.00830153024112</v>
       </c>
     </row>
     <row r="8444" spans="1:2">
@@ -67919,7 +67919,7 @@
         <v>8447</v>
       </c>
       <c r="B8447">
-        <v>37.75253198723852</v>
+        <v>37.75253198723851</v>
       </c>
     </row>
     <row r="8448" spans="1:2">
@@ -67935,7 +67935,7 @@
         <v>8449</v>
       </c>
       <c r="B8449">
-        <v>53.25481764826904</v>
+        <v>53.25481764826903</v>
       </c>
     </row>
     <row r="8450" spans="1:2">
@@ -67983,7 +67983,7 @@
         <v>8455</v>
       </c>
       <c r="B8455">
-        <v>74.1982602130861</v>
+        <v>74.19826021308609</v>
       </c>
     </row>
     <row r="8456" spans="1:2">
@@ -68055,7 +68055,7 @@
         <v>8464</v>
       </c>
       <c r="B8464">
-        <v>21.32214896097525</v>
+        <v>21.32214896097524</v>
       </c>
     </row>
     <row r="8465" spans="1:2">
@@ -68303,7 +68303,7 @@
         <v>8495</v>
       </c>
       <c r="B8495">
-        <v>7.522664648774876</v>
+        <v>7.522664648774875</v>
       </c>
     </row>
     <row r="8496" spans="1:2">
@@ -68463,7 +68463,7 @@
         <v>8515</v>
       </c>
       <c r="B8515">
-        <v>16.62776637080169</v>
+        <v>16.62776637080168</v>
       </c>
     </row>
     <row r="8516" spans="1:2">
@@ -68527,7 +68527,7 @@
         <v>8523</v>
       </c>
       <c r="B8523">
-        <v>12.98509850996823</v>
+        <v>12.98509850996822</v>
       </c>
     </row>
     <row r="8524" spans="1:2">
@@ -68551,7 +68551,7 @@
         <v>8526</v>
       </c>
       <c r="B8526">
-        <v>7.743171298263672</v>
+        <v>7.743171298263671</v>
       </c>
     </row>
     <row r="8527" spans="1:2">
@@ -68631,7 +68631,7 @@
         <v>8536</v>
       </c>
       <c r="B8536">
-        <v>31.35860113676395</v>
+        <v>31.35860113676394</v>
       </c>
     </row>
     <row r="8537" spans="1:2">
@@ -68655,7 +68655,7 @@
         <v>8539</v>
       </c>
       <c r="B8539">
-        <v>49.51523119495028</v>
+        <v>49.51523119495027</v>
       </c>
     </row>
     <row r="8540" spans="1:2">
@@ -68767,7 +68767,7 @@
         <v>8553</v>
       </c>
       <c r="B8553">
-        <v>96.60500647393926</v>
+        <v>96.60500647393924</v>
       </c>
     </row>
     <row r="8554" spans="1:2">
@@ -68863,7 +68863,7 @@
         <v>8565</v>
       </c>
       <c r="B8565">
-        <v>87.42836611137521</v>
+        <v>87.4283661113752</v>
       </c>
     </row>
     <row r="8566" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>93.18867737626395</v>
+        <v>93.18867737626394</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -68983,7 +68983,7 @@
         <v>8580</v>
       </c>
       <c r="B8580">
-        <v>93.12977009749302</v>
+        <v>93.12977009749299</v>
       </c>
     </row>
     <row r="8581" spans="1:2">
@@ -68999,7 +68999,7 @@
         <v>8582</v>
       </c>
       <c r="B8582">
-        <v>80.12620811208913</v>
+        <v>80.12620811208912</v>
       </c>
     </row>
     <row r="8583" spans="1:2">
@@ -69023,7 +69023,7 @@
         <v>8585</v>
       </c>
       <c r="B8585">
-        <v>92.59726002024536</v>
+        <v>92.59726002024534</v>
       </c>
     </row>
     <row r="8586" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>69.89978728904015</v>
+        <v>69.89978728904013</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69119,7 +69119,7 @@
         <v>8597</v>
       </c>
       <c r="B8597">
-        <v>94.60948577169415</v>
+        <v>94.60948577169414</v>
       </c>
     </row>
     <row r="8598" spans="1:2">
@@ -69191,7 +69191,7 @@
         <v>8606</v>
       </c>
       <c r="B8606">
-        <v>37.41637950589396</v>
+        <v>37.41637950589395</v>
       </c>
     </row>
     <row r="8607" spans="1:2">
@@ -69255,7 +69255,7 @@
         <v>8614</v>
       </c>
       <c r="B8614">
-        <v>86.44745734497569</v>
+        <v>86.44745734497567</v>
       </c>
     </row>
     <row r="8615" spans="1:2">
@@ -69623,7 +69623,7 @@
         <v>8660</v>
       </c>
       <c r="B8660">
-        <v>51.06381856323682</v>
+        <v>51.06381856323681</v>
       </c>
     </row>
     <row r="8661" spans="1:2">
@@ -69655,7 +69655,7 @@
         <v>8664</v>
       </c>
       <c r="B8664">
-        <v>58.27365918534458</v>
+        <v>58.27365918534457</v>
       </c>
     </row>
     <row r="8665" spans="1:2">
@@ -69687,7 +69687,7 @@
         <v>8668</v>
       </c>
       <c r="B8668">
-        <v>70.87073164012519</v>
+        <v>70.87073164012517</v>
       </c>
     </row>
     <row r="8669" spans="1:2">
@@ -69751,7 +69751,7 @@
         <v>8676</v>
       </c>
       <c r="B8676">
-        <v>49.90208496598325</v>
+        <v>49.90208496598324</v>
       </c>
     </row>
     <row r="8677" spans="1:2">
@@ -69759,7 +69759,7 @@
         <v>8677</v>
       </c>
       <c r="B8677">
-        <v>49.6295289000282</v>
+        <v>49.62952890002819</v>
       </c>
     </row>
     <row r="8678" spans="1:2">
@@ -69847,7 +69847,7 @@
         <v>8688</v>
       </c>
       <c r="B8688">
-        <v>49.3596104734211</v>
+        <v>49.35961047342109</v>
       </c>
     </row>
     <row r="8689" spans="1:2">
@@ -69871,7 +69871,7 @@
         <v>8691</v>
       </c>
       <c r="B8691">
-        <v>62.79105617527056</v>
+        <v>62.79105617527055</v>
       </c>
     </row>
     <row r="8692" spans="1:2">
@@ -69895,7 +69895,7 @@
         <v>8694</v>
       </c>
       <c r="B8694">
-        <v>73.58427638709058</v>
+        <v>73.58427638709057</v>
       </c>
     </row>
     <row r="8695" spans="1:2">
@@ -69919,7 +69919,7 @@
         <v>8697</v>
       </c>
       <c r="B8697">
-        <v>68.27500145070165</v>
+        <v>68.27500145070164</v>
       </c>
     </row>
     <row r="8698" spans="1:2">
@@ -69959,7 +69959,7 @@
         <v>8702</v>
       </c>
       <c r="B8702">
-        <v>55.88190643882934</v>
+        <v>55.88190643882933</v>
       </c>
     </row>
     <row r="8703" spans="1:2">
@@ -69991,7 +69991,7 @@
         <v>8706</v>
       </c>
       <c r="B8706">
-        <v>74.51682843211098</v>
+        <v>74.51682843211097</v>
       </c>
     </row>
     <row r="8707" spans="1:2">
@@ -70079,7 +70079,7 @@
         <v>8717</v>
       </c>
       <c r="B8717">
-        <v>65.82375528333816</v>
+        <v>65.82375528333814</v>
       </c>
     </row>
     <row r="8718" spans="1:2">
@@ -70143,7 +70143,7 @@
         <v>8725</v>
       </c>
       <c r="B8725">
-        <v>49.82090428827406</v>
+        <v>49.82090428827405</v>
       </c>
     </row>
     <row r="8726" spans="1:2">
@@ -70167,7 +70167,7 @@
         <v>8728</v>
       </c>
       <c r="B8728">
-        <v>46.58246931106619</v>
+        <v>46.58246931106618</v>
       </c>
     </row>
     <row r="8729" spans="1:2">
@@ -70199,7 +70199,7 @@
         <v>8732</v>
       </c>
       <c r="B8732">
-        <v>84.19286184455396</v>
+        <v>84.19286184455395</v>
       </c>
     </row>
     <row r="8733" spans="1:2">
@@ -70207,7 +70207,7 @@
         <v>8733</v>
       </c>
       <c r="B8733">
-        <v>82.07073445360716</v>
+        <v>82.07073445360714</v>
       </c>
     </row>
     <row r="8734" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>89.74655802718645</v>
+        <v>89.74655802718644</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
@@ -70223,7 +70223,7 @@
         <v>8735</v>
       </c>
       <c r="B8735">
-        <v>84.85989152854718</v>
+        <v>84.85989152854717</v>
       </c>
     </row>
     <row r="8736" spans="1:2">
@@ -70319,7 +70319,7 @@
         <v>8747</v>
       </c>
       <c r="B8747">
-        <v>93.7153260327384</v>
+        <v>93.71532603273836</v>
       </c>
     </row>
     <row r="8748" spans="1:2">
@@ -70391,7 +70391,7 @@
         <v>8756</v>
       </c>
       <c r="B8756">
-        <v>91.59642242321686</v>
+        <v>91.59642242321684</v>
       </c>
     </row>
     <row r="8757" spans="1:2">
